--- a/projects/whiteboard interview schedule.xlsx
+++ b/projects/whiteboard interview schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acarter\Desktop\teaching\2019S - CS 480\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CC4B7D-567D-4AC1-8E1D-22F3D5784C1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340E9315-C56B-4E13-9EA7-BA964F703FAE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1886" yWindow="1886" windowWidth="16457" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project pitch schedule" sheetId="1" r:id="rId1"/>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -937,7 +937,7 @@
     <col min="3" max="3" width="9.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -945,7 +945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -956,10 +956,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -970,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -981,7 +981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -992,18 +992,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>43557</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>19</v>
       </c>
